--- a/任务单梳理（V1.0）.xlsx
+++ b/任务单梳理（V1.0）.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="133">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -527,6 +527,26 @@
   </si>
   <si>
     <t>宋超、朱燕军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱燕军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,7 +577,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,6 +587,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -681,30 +713,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -987,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1004,9 +1054,10 @@
     <col min="8" max="8" width="10.25" customWidth="1"/>
     <col min="9" max="9" width="14.625" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1037,8 +1088,11 @@
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1055,18 +1109,21 @@
       <c r="F2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="28">
         <v>0.5</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="29">
         <v>42869</v>
       </c>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1088,9 +1145,10 @@
       <c r="G3" s="5"/>
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="4"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1114,9 +1172,12 @@
         <v>4</v>
       </c>
       <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1133,16 +1194,19 @@
       <c r="F5" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="30" t="s">
         <v>127</v>
       </c>
       <c r="H5" s="4">
         <v>4</v>
       </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1164,9 +1228,10 @@
       <c r="G6" s="5"/>
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="4"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1188,9 +1253,10 @@
       <c r="G7" s="5"/>
       <c r="H7" s="4"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="4"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1212,16 +1278,17 @@
       <c r="G8" s="5"/>
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+      <c r="J8" s="4"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="23" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -1231,17 +1298,20 @@
       <c r="F9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="30" t="s">
+        <v>130</v>
+      </c>
       <c r="H9" s="4">
         <v>0.5</v>
       </c>
       <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="21"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="6" t="s">
         <v>41</v>
       </c>
@@ -1254,9 +1324,10 @@
       <c r="G10" s="5"/>
       <c r="H10" s="4"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="4"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1278,9 +1349,10 @@
       <c r="G11" s="5"/>
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="4"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1304,9 +1376,10 @@
         <v>2</v>
       </c>
       <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="4"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1328,13 +1401,14 @@
       <c r="G13" s="5"/>
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18">
+      <c r="J13" s="4"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17">
         <v>12</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="20" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1352,11 +1426,12 @@
         <v>1</v>
       </c>
       <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="17"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="5" t="s">
         <v>56</v>
       </c>
@@ -1372,13 +1447,14 @@
       <c r="G15" s="5"/>
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
+      <c r="J15" s="4"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17">
         <v>13</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="20" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1396,11 +1472,12 @@
       <c r="G16" s="5"/>
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="17"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="5" t="s">
         <v>58</v>
       </c>
@@ -1416,16 +1493,17 @@
       <c r="G17" s="5"/>
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="4"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -1440,14 +1518,15 @@
       <c r="G18" s="5"/>
       <c r="H18" s="4"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="4"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="6" t="s">
         <v>63</v>
       </c>
@@ -1460,14 +1539,15 @@
       <c r="G19" s="5"/>
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="4"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="17"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="6" t="s">
         <v>65</v>
       </c>
@@ -1480,13 +1560,14 @@
       <c r="G20" s="5"/>
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20" s="4"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="5" t="s">
         <v>67</v>
       </c>
@@ -1497,19 +1578,22 @@
       <c r="F21" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="30" t="s">
+        <v>131</v>
+      </c>
       <c r="H21" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="4"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="16" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="20" t="s">
         <v>73</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -1526,14 +1610,15 @@
         <v>1</v>
       </c>
       <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J22" s="4"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="6" t="s">
         <v>76</v>
       </c>
@@ -1546,14 +1631,15 @@
         <v>1</v>
       </c>
       <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J23" s="4"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="17"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="6" t="s">
         <v>77</v>
       </c>
@@ -1566,14 +1652,15 @@
         <v>0.5</v>
       </c>
       <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J24" s="4"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="16" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="20" t="s">
         <v>78</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -1588,14 +1675,15 @@
         <v>0.5</v>
       </c>
       <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J25" s="4"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>22</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="17"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="6" t="s">
         <v>80</v>
       </c>
@@ -1608,14 +1696,15 @@
       <c r="G26" s="5"/>
       <c r="H26" s="4"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J26" s="4"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>23</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="16" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="20" t="s">
         <v>82</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -1630,14 +1719,15 @@
       <c r="G27" s="5"/>
       <c r="H27" s="4"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J27" s="4"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>24</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="17"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="6" t="s">
         <v>85</v>
       </c>
@@ -1650,13 +1740,14 @@
       <c r="G28" s="5"/>
       <c r="H28" s="4"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J28" s="4"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>25</v>
       </c>
-      <c r="B29" s="17"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="5" t="s">
         <v>87</v>
       </c>
@@ -1670,13 +1761,14 @@
       <c r="G29" s="5"/>
       <c r="H29" s="4"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="18">
+      <c r="J29" s="4"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="17">
         <v>26</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="20" t="s">
         <v>88</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1694,11 +1786,14 @@
         <v>122</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="17"/>
+      <c r="J30" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="9" t="s">
         <v>91</v>
       </c>
@@ -1714,16 +1809,17 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J31" s="25"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="20" t="s">
         <v>121</v>
       </c>
       <c r="D32" s="12" t="s">
@@ -1741,13 +1837,14 @@
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="12" t="s">
         <v>97</v>
       </c>
@@ -1761,13 +1858,14 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="12" t="s">
         <v>98</v>
       </c>
@@ -1781,13 +1879,14 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="12" t="s">
         <v>99</v>
       </c>
@@ -1801,13 +1900,14 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="12" t="s">
         <v>100</v>
       </c>
@@ -1821,13 +1921,14 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="14" t="s">
         <v>101</v>
       </c>
@@ -1841,13 +1942,14 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="14" t="s">
         <v>102</v>
       </c>
@@ -1860,14 +1962,15 @@
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-    </row>
-    <row r="39" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J38" s="16"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="23"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="14" t="s">
         <v>103</v>
       </c>
@@ -1881,13 +1984,14 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="1:10" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="21"/>
       <c r="D40" s="14" t="s">
         <v>104</v>
       </c>
@@ -1901,13 +2005,14 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="1:10" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="23"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="14" t="s">
         <v>105</v>
       </c>
@@ -1921,13 +2026,14 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="21"/>
       <c r="D42" s="14" t="s">
         <v>106</v>
       </c>
@@ -1937,19 +2043,22 @@
       <c r="F42" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G42" s="4"/>
+      <c r="G42" s="30" t="s">
+        <v>132</v>
+      </c>
       <c r="H42" s="4">
         <v>0.5</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-    </row>
-    <row r="43" spans="1:10" ht="69" x14ac:dyDescent="0.2">
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" ht="69" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="17"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="14" t="s">
         <v>107</v>
       </c>
@@ -1965,9 +2074,17 @@
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
+      <c r="K43" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B32:B43"/>
     <mergeCell ref="C32:C43"/>
@@ -1977,13 +2094,6 @@
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/任务单梳理（V1.0）.xlsx
+++ b/任务单梳理（V1.0）.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="171">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
   </si>
   <si>
     <t>系统主界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面替换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -246,10 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询项优化=》检验项目：支持手动输入文本，模糊匹配，方便选择查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>原始记录 功能优化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,12 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">原始记录“新增”或“编辑”页面，查询项包括：样品编号、样品名称、检测日期（时间段）、检验人。
-其中：“检测日期”（时间段）自动生成，包括实验计划日期、原始记录录入日期。也可支持手动修改“检测日期”
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需要进一步明确需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,9 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4）供应商、客户信息列表需更新。</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -387,30 +370,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按照最新页面风格设计进行替换，左侧菜单结构保持不变；按照业务需要绑定想要数据内容；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新增“任务考核”功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>该模块主要用途，以及与其他模块之间的关联关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页各个模块数据来源需要明确，以及实现计划图片如何处理。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>包括左侧菜单、列表页、操作等以及程序结构进行整合与完善与优化。便于后期功能完善与调整。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>除首页、登陆页、左侧菜单以外，还需要针对哪些显示进行调整，以及如何进行调整。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按照需求添加必要的权限控制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -420,10 +387,6 @@
   </si>
   <si>
     <t>排查权限控制、数据权限是否管用，并确保可以配置出只读用户权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -434,6 +397,164 @@
   <si>
     <t>药品盘点：完善盘点，批量审核功能；
 药品统计：可按危险性分类、使用单位、使用数量进行图标统计；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户体验调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要提供表格模板，并明确各字段意义；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照公司提供的表格重新设计与修改，其中计量检定，人工设定检定日期，可设置是否提醒；添加仪器设备的导入、导出功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加图书的图形统计、按图书类别对数据量、借出量、库存量，分别进行统计；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接按照图书的类别进行筛选，并按照柱状图显示  该类别下的总数据量、借出量、库存量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整过程中避免对现有功能造成影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化查询效率以及页面可操作性
+实验报告列表显示过慢，查询翻页也比较慢
+首先需要了解并分析实验报告查询业务逻辑，并考虑存储优化、代码优化，以及查询优化等方面调整。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现图表统计分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经销毁的样品不可再建实验计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增“分样管理”功能模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查权限问题，如果是区域数据权限，只能显示该区域的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与分样单、实验计划任务联动，只要有未完成的工作就是“进行中”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何判断分样单、实验计划任务是否都已完成？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“检验日期”改为“实验计划日期”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始记录“新增”或“编辑”页面，查询项包括：样品编号、样品名称、检测日期（时间段）、检验人。
+其中：“检测日期”（时间段）自动生成，包括实验计划日期、原始记录录入日期。也可支持手动修改“检测日期”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核未通过，则该条信息背景颜色显示为红色，通过后，再改为正常颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">超过两周未审核的报告，则需提示给审核人。
+信息在列表中置顶显示，背景颜色可显示为黄色
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照检验日期往后退时间，并按照时间显示背景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验报告 改版修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要明确一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要再明确一下优化内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）实验计划支持按日期排序。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接按照日期正序排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查权限问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3）实验室信息，实验室、设备使用状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5）人员管理：人员资质证书列表信息更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6）客户管理：客户信息补全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7）实验管理：实验室信息、实验室名称更新，新实验室补录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8）实验管理：实验统计功能（导出excel）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排查导出功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他功能修改（完善Bug）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要明确在哪些显示模块进行控制，以及如何区分访客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10)增加访客权限：比如未完成的任务不显示给所有人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11）删去“委托管理”、“质量管理”模块。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12）“检验报告”下载或批量下载的文件名目前是随机的序号，在本地查找不方便，还需修改文件名；存为本地的名称修改为“样品编号”+“样品名称”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整文件下载功能，并支持文件名称动态生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复与解答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重点优化原始记录、检验报告，感觉操作不是特别流畅；
+其他页面避免出现双重滚动条，字段虽然多，但不能去除字段。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -443,80 +564,212 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户体验调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要提供表格模板，并明确各字段意义；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照公司提供的表格重新设计与修改，其中计量检定，人工设定检定日期，可设置是否提醒；添加仪器设备的导入、导出功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、仪器设备入库、出库、计量管理，都需要按照新的Execl模板调整，需要导入功能。
-2、计量管理，需要添加“是否提醒”字段；
-需要尽快提供Execl模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要明确一下是否和仪器盘点一致？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加图书的图形统计、按图书类别对数据量、借出量、库存量，分别进行统计；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接按照图书的类别进行筛选，并按照柱状图显示  该类别下的总数据量、借出量、库存量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整过程中避免对现有功能造成影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化查询效率以及页面可操作性
-实验报告列表显示过慢，查询翻页也比较慢
-首先需要了解并分析实验报告查询业务逻辑，并考虑存储优化、代码优化，以及查询优化等方面调整。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检验报告需要优化的内容，需要进一步明确。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明确统计维度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现图表统计分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照检验单位、送/抽检单位、检验项目统计检验次数 和 合格状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经销毁的样品不可再建实验计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2）增加“分样管理”的维护管理功能，支持自动完成实验计划
+    <r>
+      <t xml:space="preserve">1、仪器设备：直接在维护页，添加便捷出、入库操作按钮，并简化填写内容，能系统关联的自动关联。
+2、计量管理：添加“是否提醒”字段，默认为提醒；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>列表字段：会提供新的Execl模板</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">与仪器设备一样进行出、入库便捷操作优化。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>列表字段：会提供新的Execl模板</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加文档说明字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增字段，可上传药品说明文档附件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">需要优化统计效率，核对查询准确性，目前查询有时不准确。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统计显示方式还需要进一步明确。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>检验报告需要优化的内容，需要进一步明确。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要进一步与需求提出人进行核对。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表维护Bug处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出维护窗口维护完毕后，需要保留在当前页。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前翻到相应页面维护完毕之后，发现回到了第一页，需要修复该Bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分样管理的其主要目的是为了简化添加样品以及添加实验计划的复杂度，通过添加分样，可自动完成实验计划的生成。避免二次操作。并需要实现关联查询效果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。
+2）增加“分样管理”的维护管理功能，支持自动完成实验计划
 其中：
  列表项包括：样品编号、样品名称、测试项目及标准、存储条件、测试部门、紧急程度（紧急3天、普通5天）。
  自动完成实验计划：与实验计划进行联动，即在分样管理填写了记录，则在实验计划管理自动增加实验计划的记录。
  具有权限的单位用户可使用“分样管理”功能。
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增“分样管理”功能模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">（2）增加“实验考核”，完成自动考核功能。
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>该新模块有必要绘制界面原型，确定操作逻辑；避免返工。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">该模块主要用途，以及与其他模块之间的关联关系
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要与需求提出人员进一步沟通</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要与需求提出人员进一步沟通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+（2）增加“实验考核”，完成自动考核功能。
 实现思路：
 1）列表项包括：序号、项目名称、样品名称（可存在多个样品）、状态、分样日期、完成日期、完成人。
 2）同一个项目名称对应多个样品如果分样日期一致，且分样的紧急程度一致，则可合并为一条记录。（此情况下，如果完成时间不一致，则可拆分记录）
@@ -526,22 +779,161 @@
  延期：“原始记录检测日期”无记录，“当前日期”大于等于“分样日期+紧急程度（普通5天、紧急3天）”；
  延期完成：“原始记录检测日期”大于等于“分样日期+紧急程度（普通5天、紧急3天）”。
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查权限问题，如果是区域数据权限，只能显示该区域的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与分样单、实验计划任务联动，只要有未完成的工作就是“进行中”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何判断分样单、实验计划任务是否都已完成？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t> 检测项目：显示为当前进行工作，负责人自动关联；“联系电话”删除；列项修改为：测试部门、检测项目、检测状态（进行中、完毕）、检测人。【每天自动更新，显示当天状态。】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望实现样品名称关联修改，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前新增样品=》新增实验计划=》原始记录=》检验报告；
+可能因为样品名称录入错误导致工作量巨大，希望实现关联修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">判断分样单、实验计划任务是否完成的依据是 是否有原始记录；因为只有实验计划完成之后才会填写原始记录；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>该模块可考虑通过主外键关联取代任务单号。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 检测项目：显示为当前进行工作，负责人自动关联；“联系电话”删除；列项修改为：测试部门、检测项目、检测状态（进行中、完毕）、检测人。【每天自动更新，显示当天状态。】
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>该模块在日常中很少使用，需要进一步核对如何进行修改；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">添加便捷查询，是否当下拉菜单为样品名称是，自动级联显示可选样品+编号
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果分样管理添加完毕后，该模块可能会自动流转，还需要进一步明确。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">考虑是否可以先简单的处理，比较不是核心功能。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果分样管理添加完毕后，该模块可能会自动流转，还需要进一步明确。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已批准 表示通过；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要先提供Execl模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）药品柜供您可设置权限可编辑，不能全部放开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以及有需求对该模块进行调整，这里的调整内容需要进一步细化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以及有需求对该模块进行调整，这里的调整内容需要进一步细化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经了解，是因为实验室的名称以及职能发生了变化，可以直接通过系统维护功能进行修改和添加。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9）录入的样品可以按照日期自动排序，并可以在添加样品时有检索功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要调整排序逻辑，添加样品的检索功能需要明确一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要调整排序逻辑，添加样品的检索功能需要明确一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是排查功能权限控制是否OK，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照最新页面风格设计进行替换，左侧菜单结构保持不变；按照业务需要绑定想要数据内容；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面替换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页图片、通知公告：与之前的读取逻辑保持一致；
+以下数据都按照个人数据权限读取（个人、区域、全部）
+实验计划：显示实验计划中未完成的计划，实验图片固定随机显示；
+检验报告：按照审批时间，倒叙读取；
+易耗品：按照快过期、库存排序；
+计量检定：按照提醒日期排序；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照检验单位、送/抽检单位、检验项目统计检验次数 和 合格状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照需求添加新的功能模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照需求添加新的功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -549,138 +941,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加便捷查询，是否当下拉菜单为样品名称是，自动级联显示可选样品+编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考虑是否可以先简单的处理，比较不是核心功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“检验日期”改为“实验计划日期”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原始记录“新增”或“编辑”页面，查询项包括：样品编号、样品名称、检测日期（时间段）、检验人。
-其中：“检测日期”（时间段）自动生成，包括实验计划日期、原始记录录入日期。也可支持手动修改“检测日期”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核未通过，则该条信息背景颜色显示为红色，通过后，再改为正常颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是批准还是审核 需要明确一下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">超过两周未审核的报告，则需提示给审核人。
-信息在列表中置顶显示，背景颜色可显示为黄色
+    <t>查询项优化=》检验项目：支持手动输入文本，模糊匹配，方便选择查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">原始记录“新增”或“编辑”页面，查询项包括：样品编号、样品名称、检测日期（时间段）、检验人。
+其中：“检测日期”（时间段）自动生成，包括实验计划日期、原始记录录入日期。也可支持手动修改“检测日期”
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按照检验日期往后退时间，并按照时间显示背景。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检验报告 改版修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要明确一下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要再明确一下优化内容。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要先提供Execl模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1）实验计划支持按日期排序。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接按照日期正序排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2）药品柜供您可设置权限可编辑，不能全部放开。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查权限问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以及有需求对该模块进行调整，这里的调整内容需要进一步细化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3）实验室信息，实验室、设备使用状态。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以及有需求对该模块进行调整，这里的调整内容需要进一步细化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5）人员管理：人员资质证书列表信息更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6）客户管理：客户信息补全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7）实验管理：实验室信息、实验室名称更新，新实验室补录。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8）实验管理：实验统计功能（导出excel）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排查导出功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他功能修改（完善Bug）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9）录入的样品可以按照日期自动排序，并可以在添加样品时有检索功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要调整排序逻辑，添加样品的检索功能需要明确一下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要明确在哪些显示模块进行控制，以及如何区分访客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还是排查功能权限控制是否OK，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10)增加访客权限：比如未完成的任务不显示给所有人。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11）删去“委托管理”、“质量管理”模块。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12）“检验报告”下载或批量下载的文件名目前是随机的序号，在本地查找不方便，还需修改文件名；存为本地的名称修改为“样品编号”+“样品名称”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整文件下载功能，并支持文件名称动态生成</t>
+    <t>4）供应商、客户信息列表需更新。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,7 +959,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -710,8 +981,42 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -739,6 +1044,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,7 +1118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -825,12 +1136,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -870,55 +1175,97 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1201,18 +1548,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="29.875" customWidth="1"/>
-    <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
+    <col min="4" max="4" width="44.75" customWidth="1"/>
+    <col min="5" max="5" width="21.625" customWidth="1"/>
     <col min="6" max="6" width="31.75" customWidth="1"/>
     <col min="7" max="7" width="11.75" customWidth="1"/>
     <col min="8" max="8" width="13.125" customWidth="1"/>
@@ -1236,11 +1583,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -1255,7 +1604,7 @@
         <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1273,20 +1622,20 @@
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="19" t="s">
+      <c r="G2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="18">
+        <v>42869</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>83</v>
-      </c>
-      <c r="I2" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="20">
-        <v>42869</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="L2" s="2"/>
     </row>
@@ -1298,19 +1647,19 @@
         <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -1323,29 +1672,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>32</v>
+      <c r="F4" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I4" s="4">
         <v>4</v>
       </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="17">
+      <c r="K4" s="15">
         <v>0.5</v>
       </c>
       <c r="L4" s="2"/>
@@ -1355,108 +1704,102 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="19">
+      <c r="G5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="17">
         <v>4</v>
       </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34">
+      <c r="J5" s="24"/>
+      <c r="K5" s="25">
         <v>1</v>
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+    <row r="6" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>28</v>
+        <v>92</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="4"/>
@@ -1464,49 +1807,47 @@
       <c r="K8" s="4"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22">
-        <v>8</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>22</v>
+    <row r="9" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0.5</v>
-      </c>
+      <c r="G9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="29"/>
+    <row r="10" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="D10" s="6" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>28</v>
+        <v>95</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="4"/>
@@ -1514,85 +1855,77 @@
       <c r="K10" s="4"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
+    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="28">
+        <v>8</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.5</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="4"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
+    <row r="12" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="6" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="22" t="s">
         <v>27</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="4">
-        <v>2</v>
-      </c>
+      <c r="I12" s="4"/>
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>27</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="4"/>
@@ -1600,49 +1933,57 @@
       <c r="K13" s="4"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22">
-        <v>12</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>36</v>
+    <row r="14" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="22" t="s">
         <v>26</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="4"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="5" t="s">
-        <v>119</v>
+    <row r="15" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="4"/>
@@ -1650,51 +1991,49 @@
       <c r="K15" s="4"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22">
-        <v>13</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>92</v>
+    <row r="16" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28">
+        <v>12</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>27</v>
+        <v>36</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="4"/>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="27"/>
+    <row r="17" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="29"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="5" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>28</v>
+      <c r="F17" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="4"/>
@@ -1702,27 +2041,19 @@
       <c r="K17" s="4"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>14</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>43</v>
+    <row r="18" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>26</v>
+        <v>146</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="4"/>
@@ -1730,23 +2061,27 @@
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>15</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
+    <row r="19" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="28">
+        <v>13</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="D19" s="6" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>28</v>
+        <v>38</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="4"/>
@@ -1754,23 +2089,23 @@
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>16</v>
-      </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
+    <row r="20" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="29"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="D20" s="6" t="s">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>28</v>
+        <v>38</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="4"/>
@@ -1778,221 +2113,223 @@
       <c r="K20" s="4"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>17</v>
-      </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="5" t="s">
-        <v>48</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="I21" s="4">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="4"/>
       <c r="J21" s="5"/>
       <c r="K21" s="4"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>18</v>
-      </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="25" t="s">
-        <v>54</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="6" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>27</v>
+        <v>106</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="4">
-        <v>1</v>
-      </c>
+      <c r="I22" s="4"/>
       <c r="J22" s="5"/>
       <c r="K22" s="4"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>19</v>
-      </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" s="22" t="s">
         <v>27</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="I23" s="4">
-        <v>1</v>
-      </c>
+      <c r="I23" s="4"/>
       <c r="J23" s="5"/>
       <c r="K23" s="4"/>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>20</v>
-      </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="D24" s="6" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="5"/>
+      <c r="G24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="I24" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="4"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>21</v>
-      </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="25" t="s">
-        <v>57</v>
+        <v>18</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="26" t="s">
+        <v>53</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" s="22" t="s">
         <v>26</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="4"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>22</v>
-      </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>27</v>
+        <v>168</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="H26" s="5"/>
-      <c r="I26" s="4"/>
+      <c r="I26" s="4">
+        <v>1</v>
+      </c>
       <c r="J26" s="5"/>
       <c r="K26" s="4"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>23</v>
-      </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="25" t="s">
-        <v>61</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B27" s="33"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="G27" s="31" t="s">
-        <v>27</v>
+        <v>107</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="H27" s="5"/>
-      <c r="I27" s="4"/>
+      <c r="I27" s="4">
+        <v>0.5</v>
+      </c>
       <c r="J27" s="5"/>
       <c r="K27" s="4"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>24</v>
-      </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
+        <v>21</v>
+      </c>
+      <c r="B28" s="33"/>
+      <c r="C28" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="D28" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>26</v>
+        <v>56</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="H28" s="5"/>
-      <c r="I28" s="4"/>
+      <c r="I28" s="4">
+        <v>0.5</v>
+      </c>
       <c r="J28" s="5"/>
       <c r="K28" s="4"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>25</v>
-      </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D29" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="33"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="E29" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="G29" s="31" t="s">
-        <v>27</v>
+        <v>57</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="4"/>
@@ -2001,176 +2338,178 @@
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="22">
+      <c r="A30" s="4">
+        <v>23</v>
+      </c>
+      <c r="B30" s="33"/>
+      <c r="C30" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>24</v>
+      </c>
+      <c r="B31" s="33"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>25</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="G30" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="G31" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <v>27</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="J32" s="4"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="5"/>
       <c r="K32" s="4"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>28</v>
-      </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G33" s="1" t="s">
+    <row r="33" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="28">
         <v>26</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="B33" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="16">
+        <v>0.1</v>
+      </c>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>29</v>
-      </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F34" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="G34" s="32" t="s">
+    <row r="34" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="29"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="G34" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="14"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>30</v>
-      </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="11" t="s">
-        <v>72</v>
+        <v>27</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>27</v>
+        <v>70</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="I35" s="4">
+        <v>0.5</v>
+      </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>31</v>
-      </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="26"/>
+        <v>28</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="G36" s="32" t="s">
-        <v>28</v>
+        <v>153</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -2178,23 +2517,23 @@
       <c r="K36" s="4"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>32</v>
-      </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="G37" s="32" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="G37" s="46" t="s">
+        <v>26</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -2202,47 +2541,47 @@
       <c r="K37" s="4"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>33</v>
-      </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G38" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>31</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="G39" s="23" t="s">
         <v>27</v>
-      </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>34</v>
-      </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -2250,23 +2589,23 @@
       <c r="K39" s="4"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>35</v>
-      </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="13" t="s">
-        <v>151</v>
+        <v>32</v>
+      </c>
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="G40" s="32" t="s">
-        <v>28</v>
+        <v>73</v>
+      </c>
+      <c r="F40" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -2274,98 +2613,170 @@
       <c r="K40" s="4"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>36</v>
-      </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="G41" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="B41" s="32"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="G41" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="13"/>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>37</v>
-      </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="13" t="s">
-        <v>156</v>
+        <v>34</v>
+      </c>
+      <c r="B42" s="32"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F42" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="G42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="I42" s="4">
-        <v>0.5</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" ht="51.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>38</v>
-      </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="32"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="1" t="s">
-        <v>32</v>
+      <c r="F43" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="G43" s="46" t="s">
+        <v>27</v>
       </c>
       <c r="H43" s="4"/>
-      <c r="I43" s="4">
-        <v>1</v>
-      </c>
+      <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="2"/>
     </row>
+    <row r="44" spans="1:12" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>36</v>
+      </c>
+      <c r="B44" s="32"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="G44" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>37</v>
+      </c>
+      <c r="B45" s="32"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" ht="69" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>38</v>
+      </c>
+      <c r="B46" s="29"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4">
+        <v>1</v>
+      </c>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B35:B46"/>
+    <mergeCell ref="C35:C46"/>
+    <mergeCell ref="B21:B32"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B32:B43"/>
-    <mergeCell ref="C32:C43"/>
-    <mergeCell ref="B18:B29"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B16:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/任务单梳理（V1.0）.xlsx
+++ b/任务单梳理（V1.0）.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="166">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,10 +251,6 @@
   </si>
   <si>
     <t>原始记录 功能优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去掉其中一个“保存”按钮，如下图，去掉“新增”原始记录页面底端的“保存”与“取消”按钮；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -434,12 +430,6 @@
   <si>
     <t>药品盘点：完善盘点，批量审核功能；
 药品统计：可按危险性分类、使用单位、使用数量进行图标统计；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复Bug
-1、药品盘点：完善盘点，批量审核功能；
-2、药品统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -683,12 +673,50 @@
     <t>调整文件下载功能，并支持文件名称动态生成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药品柜增加权限码3ea74d13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉其中一个“保存”按钮，如下图，去掉“新增”原始记录页面底端的“保存”与“取消”按钮；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复Bug
+1、药品盘点：完善盘点，批量审核功能；
+2、药品统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待议，统计实用性不大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有问题，但是导出数据量太大了容易超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -711,7 +739,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -739,6 +767,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,7 +841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -870,6 +904,36 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -894,31 +958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -981,7 +1021,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1016,7 +1056,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1193,21 +1233,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="29.875" customWidth="1"/>
@@ -1218,11 +1258,11 @@
     <col min="8" max="8" width="13.125" customWidth="1"/>
     <col min="9" max="9" width="10.25" customWidth="1"/>
     <col min="10" max="10" width="14.625" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="11" max="11" width="21.875" customWidth="1"/>
     <col min="12" max="12" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1240,7 +1280,7 @@
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -1255,10 +1295,10 @@
         <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="21.75" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1277,7 +1317,7 @@
         <v>26</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" s="19">
         <v>0.5</v>
@@ -1286,11 +1326,11 @@
         <v>42869</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="36.75" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1301,15 +1341,15 @@
         <v>12</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="31" t="s">
+      <c r="F3" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>27</v>
       </c>
       <c r="H3" s="5"/>
@@ -1318,7 +1358,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="36.75" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1329,17 +1369,17 @@
         <v>34</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="22" t="s">
         <v>95</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="30" t="s">
-        <v>96</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>32</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I4" s="4">
         <v>4</v>
@@ -1350,7 +1390,7 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="36.75" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1369,18 +1409,18 @@
         <v>53</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5" s="19">
         <v>4</v>
       </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34">
+      <c r="J5" s="25"/>
+      <c r="K5" s="26">
         <v>1</v>
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="43.5" customHeight="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1391,16 +1431,16 @@
         <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -1408,7 +1448,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="45.75" customHeight="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1419,16 +1459,16 @@
         <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="4"/>
@@ -1436,7 +1476,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="91.5" customHeight="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1444,18 +1484,18 @@
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="E8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="23" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="5"/>
@@ -1464,14 +1504,14 @@
       <c r="K8" s="4"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22">
+    <row r="9" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A9" s="32">
         <v>8</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="38" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -1483,29 +1523,31 @@
         <v>32</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I9" s="4">
         <v>0.5</v>
       </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
+      <c r="K9" s="31" t="s">
+        <v>157</v>
+      </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="29"/>
+    <row r="10" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A10" s="33"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="31" t="s">
+      <c r="F10" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="5"/>
@@ -1514,7 +1556,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="36" customHeight="1">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1525,13 +1567,13 @@
         <v>21</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>26</v>
@@ -1539,10 +1581,12 @@
       <c r="H11" s="5"/>
       <c r="I11" s="4"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="4"/>
+      <c r="K11" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="40.5" customHeight="1">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1553,15 +1597,15 @@
         <v>24</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="23" t="s">
         <v>27</v>
       </c>
       <c r="H12" s="5"/>
@@ -1572,7 +1616,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="32.25" customHeight="1">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1580,18 +1624,18 @@
         <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="31" t="s">
+      <c r="F13" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="23" t="s">
         <v>27</v>
       </c>
       <c r="H13" s="5"/>
@@ -1600,15 +1644,15 @@
       <c r="K13" s="4"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22">
+    <row r="14" spans="1:12" ht="45.75" customHeight="1">
+      <c r="A14" s="32">
         <v>12</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="35" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>37</v>
@@ -1623,14 +1667,16 @@
         <v>1</v>
       </c>
       <c r="J14" s="5"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="19" t="s">
+        <v>160</v>
+      </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="27"/>
+    <row r="15" spans="1:12" ht="38.25" customHeight="1">
+      <c r="A15" s="33"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>38</v>
@@ -1638,10 +1684,10 @@
       <c r="E15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" s="31" t="s">
+      <c r="F15" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="23" t="s">
         <v>27</v>
       </c>
       <c r="H15" s="5"/>
@@ -1650,15 +1696,15 @@
       <c r="K15" s="4"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22">
+    <row r="16" spans="1:12" ht="39" customHeight="1">
+      <c r="A16" s="32">
         <v>13</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="35" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>38</v>
@@ -1666,10 +1712,10 @@
       <c r="E16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="31" t="s">
+      <c r="F16" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="23" t="s">
         <v>27</v>
       </c>
       <c r="H16" s="5"/>
@@ -1678,9 +1724,9 @@
       <c r="K16" s="4"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="27"/>
+    <row r="17" spans="1:12" ht="41.25" customHeight="1">
+      <c r="A17" s="33"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="5" t="s">
         <v>41</v>
       </c>
@@ -1690,10 +1736,10 @@
       <c r="E17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17" s="31" t="s">
+      <c r="F17" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="23" t="s">
         <v>28</v>
       </c>
       <c r="H17" s="5"/>
@@ -1702,14 +1748,14 @@
       <c r="K17" s="4"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="39.75" customHeight="1">
       <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="35" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -1719,7 +1765,7 @@
         <v>45</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>26</v>
@@ -1730,22 +1776,22 @@
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="34.5" customHeight="1">
       <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="23" t="s">
         <v>28</v>
       </c>
       <c r="H19" s="5"/>
@@ -1754,22 +1800,22 @@
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="21.75" customHeight="1">
       <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="G20" s="31" t="s">
+      <c r="F20" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="23" t="s">
         <v>28</v>
       </c>
       <c r="H20" s="5"/>
@@ -1778,11 +1824,11 @@
       <c r="K20" s="4"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="21.75" customHeight="1">
       <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="26"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="5" t="s">
         <v>48</v>
       </c>
@@ -1795,33 +1841,35 @@
         <v>26</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I21" s="4">
         <v>1</v>
       </c>
       <c r="J21" s="5"/>
-      <c r="K21" s="4"/>
+      <c r="K21" s="19" t="s">
+        <v>157</v>
+      </c>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="39" customHeight="1">
       <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="25" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="35" t="s">
         <v>54</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="31" t="s">
+      <c r="F22" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="23" t="s">
         <v>27</v>
       </c>
       <c r="H22" s="5"/>
@@ -1832,20 +1880,20 @@
       <c r="K22" s="4"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="38.25" customHeight="1">
       <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E23" s="6"/>
-      <c r="F23" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="31" t="s">
+      <c r="F23" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="23" t="s">
         <v>27</v>
       </c>
       <c r="H23" s="5"/>
@@ -1856,14 +1904,14 @@
       <c r="K23" s="4"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="21.75" customHeight="1">
       <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -1875,19 +1923,21 @@
         <v>0.5</v>
       </c>
       <c r="J24" s="5"/>
-      <c r="K24" s="4"/>
+      <c r="K24" s="19" t="s">
+        <v>157</v>
+      </c>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="21.75" customHeight="1">
       <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="25" t="s">
+      <c r="B25" s="36"/>
+      <c r="C25" s="35" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -1902,22 +1952,22 @@
       <c r="K25" s="4"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="46.5" customHeight="1">
       <c r="A26" s="4">
         <v>22</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="G26" s="31" t="s">
+      <c r="F26" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="23" t="s">
         <v>27</v>
       </c>
       <c r="H26" s="5"/>
@@ -1926,24 +1976,24 @@
       <c r="K26" s="4"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="21.75" customHeight="1">
       <c r="A27" s="4">
         <v>23</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="25" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="G27" s="31" t="s">
+      <c r="F27" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" s="23" t="s">
         <v>27</v>
       </c>
       <c r="H27" s="5"/>
@@ -1952,20 +2002,20 @@
       <c r="K27" s="4"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="44.25" customHeight="1">
       <c r="A28" s="4">
         <v>24</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>26</v>
@@ -1973,25 +2023,27 @@
       <c r="H28" s="5"/>
       <c r="I28" s="4"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="4"/>
+      <c r="K28" s="40" t="s">
+        <v>163</v>
+      </c>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="21.75" customHeight="1">
       <c r="A29" s="4">
         <v>25</v>
       </c>
-      <c r="B29" s="27"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="G29" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="23" t="s">
         <v>27</v>
       </c>
       <c r="H29" s="5"/>
@@ -2000,29 +2052,29 @@
       <c r="K29" s="4"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="22">
+    <row r="30" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A30" s="32">
         <v>26</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="E30" s="8"/>
-      <c r="F30" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="G30" s="31" t="s">
+      <c r="F30" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="G30" s="23" t="s">
         <v>27</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="18">
@@ -2030,22 +2082,22 @@
       </c>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23"/>
-      <c r="B31" s="27"/>
+    <row r="31" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A31" s="33"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="E31" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="G31" s="31" t="s">
+      <c r="F31" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" s="23" t="s">
         <v>28</v>
       </c>
       <c r="H31" s="3"/>
@@ -2054,24 +2106,24 @@
       <c r="K31" s="16"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="19.5" customHeight="1">
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>150</v>
+      <c r="B32" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>148</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>26</v>
@@ -2081,21 +2133,23 @@
         <v>0.5</v>
       </c>
       <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="K32" s="19" t="s">
+        <v>157</v>
+      </c>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="21.75" customHeight="1">
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="26"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>26</v>
@@ -2103,25 +2157,27 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="K33" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="21.75" customHeight="1">
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="26"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="F34" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="G34" s="32" t="s">
+      <c r="G34" s="24" t="s">
         <v>27</v>
       </c>
       <c r="H34" s="4"/>
@@ -2130,22 +2186,22 @@
       <c r="K34" s="4"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="21.75" customHeight="1">
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="26"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="G35" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="24" t="s">
         <v>27</v>
       </c>
       <c r="H35" s="4"/>
@@ -2154,22 +2210,22 @@
       <c r="K35" s="4"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="21.75" customHeight="1">
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="26"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="G36" s="32" t="s">
+      <c r="F36" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="24" t="s">
         <v>28</v>
       </c>
       <c r="H36" s="4"/>
@@ -2178,22 +2234,22 @@
       <c r="K36" s="4"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="21.75" customHeight="1">
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="26"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="36"/>
       <c r="D37" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="G37" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="24" t="s">
         <v>28</v>
       </c>
       <c r="H37" s="4"/>
@@ -2202,22 +2258,22 @@
       <c r="K37" s="4"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="37.5" customHeight="1">
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="26"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="36"/>
       <c r="D38" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G38" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="30" t="s">
         <v>27</v>
       </c>
       <c r="H38" s="12"/>
@@ -2226,20 +2282,20 @@
       <c r="K38" s="15"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="17.25">
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="26"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="36"/>
       <c r="D39" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>26</v>
@@ -2247,25 +2303,27 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
+      <c r="K39" s="19" t="s">
+        <v>165</v>
+      </c>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="34.5">
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="26"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="36"/>
       <c r="D40" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="G40" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="G40" s="24" t="s">
         <v>28</v>
       </c>
       <c r="H40" s="4"/>
@@ -2274,22 +2332,22 @@
       <c r="K40" s="4"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="17.25">
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="26"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="36"/>
       <c r="D41" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="G41" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="G41" s="24" t="s">
         <v>27</v>
       </c>
       <c r="H41" s="4"/>
@@ -2298,43 +2356,45 @@
       <c r="K41" s="4"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="17.25">
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="26"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="36"/>
       <c r="D42" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I42" s="4">
         <v>0.5</v>
       </c>
       <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
+      <c r="K42" s="19" t="s">
+        <v>157</v>
+      </c>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" ht="51.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="51.75">
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="27"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="1" t="s">
@@ -2345,7 +2405,9 @@
         <v>1</v>
       </c>
       <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
+      <c r="K43" s="19" t="s">
+        <v>162</v>
+      </c>
       <c r="L43" s="2"/>
     </row>
   </sheetData>

--- a/任务单梳理（V1.0）.xlsx
+++ b/任务单梳理（V1.0）.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="174">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,10 +243,6 @@
   </si>
   <si>
     <t>原始记录 功能优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去掉其中一个“保存”按钮，如下图，去掉“新增”原始记录页面底端的“保存”与“取消”按钮；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -460,10 +456,6 @@
   <si>
     <t>原始记录“新增”或“编辑”页面，查询项包括：样品编号、样品名称、检测日期（时间段）、检验人。
 其中：“检测日期”（时间段）自动生成，包括实验计划日期、原始记录录入日期。也可支持手动修改“检测日期”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核未通过，则该条信息背景颜色显示为红色，通过后，再改为正常颜色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -664,10 +656,6 @@
   </si>
   <si>
     <t>列表维护Bug处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出维护窗口维护完毕后，需要保留在当前页。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -787,8 +775,155 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目前新增样品=》新增实验计划=》原始记录=》检验报告；
-可能因为样品名称录入错误导致工作量巨大，希望实现关联修改。</t>
+    <r>
+      <t xml:space="preserve"> 检测项目：显示为当前进行工作，负责人自动关联；“联系电话”删除；列项修改为：测试部门、检测项目、检测状态（进行中、完毕）、检测人。【每天自动更新，显示当天状态。】
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>该模块在日常中很少使用，需要进一步核对如何进行修改；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">添加便捷查询，是否当下拉菜单为样品名称是，自动级联显示可选样品+编号
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果分样管理添加完毕后，该模块可能会自动流转，还需要进一步明确。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">考虑是否可以先简单的处理，比较不是核心功能。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果分样管理添加完毕后，该模块可能会自动流转，还需要进一步明确。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已批准 表示通过；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要先提供Execl模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）药品柜供您可设置权限可编辑，不能全部放开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以及有需求对该模块进行调整，这里的调整内容需要进一步细化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以及有需求对该模块进行调整，这里的调整内容需要进一步细化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经了解，是因为实验室的名称以及职能发生了变化，可以直接通过系统维护功能进行修改和添加。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9）录入的样品可以按照日期自动排序，并可以在添加样品时有检索功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要调整排序逻辑，添加样品的检索功能需要明确一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要调整排序逻辑，添加样品的检索功能需要明确一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是排查功能权限控制是否OK，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照最新页面风格设计进行替换，左侧菜单结构保持不变；按照业务需要绑定想要数据内容；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面替换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页图片、通知公告：与之前的读取逻辑保持一致；
+以下数据都按照个人数据权限读取（个人、区域、全部）
+实验计划：显示实验计划中未完成的计划，实验图片固定随机显示；
+检验报告：按照审批时间，倒叙读取；
+易耗品：按照快过期、库存排序；
+计量检定：按照提醒日期排序；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照检验单位、送/抽检单位、检验项目统计检验次数 和 合格状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照需求添加新的功能模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照需求添加新的功能模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询项优化=》样品名称选择后，自动显示为样品管理中“样品编号”+“样品名称”，按日期倒序排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询项优化=》检验项目：支持手动输入文本，模糊匹配，方便选择查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">原始记录“新增”或“编辑”页面，查询项包括：样品编号、样品名称、检测日期（时间段）、检验人。
+其中：“检测日期”（时间段）自动生成，包括实验计划日期、原始记录录入日期。也可支持手动修改“检测日期”
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4）供应商、客户信息列表需更新。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核未通过，则该条信息背景颜色显示为红色，通过后，再改为正常颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉其中一个“保存”按钮，如下图，去掉“新增”原始记录页面底端的“保存”与“取消”按钮；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -811,155 +946,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> 检测项目：显示为当前进行工作，负责人自动关联；“联系电话”删除；列项修改为：测试部门、检测项目、检测状态（进行中、完毕）、检测人。【每天自动更新，显示当天状态。】
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>该模块在日常中很少使用，需要进一步核对如何进行修改；</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">添加便捷查询，是否当下拉菜单为样品名称是，自动级联显示可选样品+编号
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>如果分样管理添加完毕后，该模块可能会自动流转，还需要进一步明确。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">考虑是否可以先简单的处理，比较不是核心功能。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>如果分样管理添加完毕后，该模块可能会自动流转，还需要进一步明确。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已批准 表示通过；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要先提供Execl模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2）药品柜供您可设置权限可编辑，不能全部放开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以及有需求对该模块进行调整，这里的调整内容需要进一步细化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以及有需求对该模块进行调整，这里的调整内容需要进一步细化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经了解，是因为实验室的名称以及职能发生了变化，可以直接通过系统维护功能进行修改和添加。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9）录入的样品可以按照日期自动排序，并可以在添加样品时有检索功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要调整排序逻辑，添加样品的检索功能需要明确一下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要调整排序逻辑，添加样品的检索功能需要明确一下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还是排查功能权限控制是否OK，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照最新页面风格设计进行替换，左侧菜单结构保持不变；按照业务需要绑定想要数据内容；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面替换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页图片、通知公告：与之前的读取逻辑保持一致；
-以下数据都按照个人数据权限读取（个人、区域、全部）
-实验计划：显示实验计划中未完成的计划，实验图片固定随机显示；
-检验报告：按照审批时间，倒叙读取；
-易耗品：按照快过期、库存排序；
-计量检定：按照提醒日期排序；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照检验单位、送/抽检单位、检验项目统计检验次数 和 合格状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照需求添加新的功能模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照需求添加新的功能模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询项优化=》样品名称选择后，自动显示为样品管理中“样品编号”+“样品名称”，按日期倒序排列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询项优化=》检验项目：支持手动输入文本，模糊匹配，方便选择查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">原始记录“新增”或“编辑”页面，查询项包括：样品编号、样品名称、检测日期（时间段）、检验人。
-其中：“检测日期”（时间段）自动生成，包括实验计划日期、原始记录录入日期。也可支持手动修改“检测日期”
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4）供应商、客户信息列表需更新。</t>
+    <t>目前新增样品=》新增实验计划=》原始记录=》检验报告；
+可能因为样品名称录入错误导致工作量巨大，希望实现关联修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出维护窗口维护完毕后，需要保留在当前页。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待议，实用性不大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是，导出量太大会超时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1015,8 +1027,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1050,6 +1070,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,10 +1146,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1193,84 +1227,91 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1328,7 +1369,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1363,7 +1404,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1540,21 +1581,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="29.875" customWidth="1"/>
@@ -1569,7 +1610,7 @@
     <col min="12" max="12" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1586,10 +1627,10 @@
         <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -1604,10 +1645,10 @@
         <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="21.75" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1626,7 +1667,7 @@
         <v>25</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I2" s="17">
         <v>0.5</v>
@@ -1635,11 +1676,11 @@
         <v>42869</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="36.75" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1647,16 +1688,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>25</v>
@@ -1667,7 +1708,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="36.75" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1678,17 +1719,17 @@
         <v>33</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>31</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I4" s="4">
         <v>4</v>
@@ -1699,7 +1740,7 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="36.75" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1718,7 +1759,7 @@
         <v>52</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I5" s="17">
         <v>4</v>
@@ -1729,29 +1770,29 @@
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="36.75" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="37"/>
+      <c r="K6" s="29"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="43.5" customHeight="1">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1762,13 +1803,13 @@
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>25</v>
@@ -1779,7 +1820,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="45.75" customHeight="1">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1790,13 +1831,13 @@
         <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>25</v>
@@ -1804,17 +1845,16 @@
       <c r="H8" s="5"/>
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="31.5" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -1827,7 +1867,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="91.5" customHeight="1">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -1835,16 +1875,16 @@
         <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="F10" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G10" s="22" t="s">
         <v>27</v>
@@ -1855,14 +1895,14 @@
       <c r="K10" s="4"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
+    <row r="11" spans="1:12" ht="22.5" customHeight="1">
+      <c r="A11" s="43">
         <v>8</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="49" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -1874,19 +1914,21 @@
         <v>31</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I11" s="4">
         <v>0.5</v>
       </c>
       <c r="J11" s="5"/>
-      <c r="K11" s="4"/>
+      <c r="K11" s="52" t="s">
+        <v>172</v>
+      </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="31"/>
+    <row r="12" spans="1:12" ht="51.75" customHeight="1">
+      <c r="A12" s="44"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="6" t="s">
         <v>29</v>
       </c>
@@ -1894,7 +1936,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G12" s="22" t="s">
         <v>27</v>
@@ -1905,7 +1947,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="36" customHeight="1">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -1916,13 +1958,13 @@
         <v>20</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>25</v>
@@ -1930,10 +1972,12 @@
       <c r="H13" s="5"/>
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="4"/>
+      <c r="K13" s="51" t="s">
+        <v>171</v>
+      </c>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="51" customHeight="1">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -1944,13 +1988,13 @@
         <v>23</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>138</v>
+        <v>98</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>136</v>
       </c>
       <c r="G14" s="22" t="s">
         <v>26</v>
@@ -1963,7 +2007,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="45" customHeight="1">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -1971,16 +2015,16 @@
         <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>34</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>26</v>
@@ -1991,15 +2035,15 @@
       <c r="K15" s="4"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28">
+    <row r="16" spans="1:12" ht="45.75" customHeight="1">
+      <c r="A16" s="43">
         <v>12</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="43" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>36</v>
@@ -2014,14 +2058,16 @@
         <v>1</v>
       </c>
       <c r="J16" s="5"/>
-      <c r="K16" s="4"/>
+      <c r="K16" s="52" t="s">
+        <v>172</v>
+      </c>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
-      <c r="B17" s="32"/>
+    <row r="17" spans="1:12" ht="38.25" customHeight="1">
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>37</v>
@@ -2029,8 +2075,8 @@
       <c r="E17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="38" t="s">
-        <v>142</v>
+      <c r="F17" s="30" t="s">
+        <v>139</v>
       </c>
       <c r="G17" s="22" t="s">
         <v>26</v>
@@ -2041,17 +2087,17 @@
       <c r="K17" s="4"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="38.25" customHeight="1">
       <c r="A18" s="20"/>
-      <c r="B18" s="29"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="38"/>
+      <c r="F18" s="30"/>
       <c r="G18" s="12" t="s">
         <v>25</v>
       </c>
@@ -2061,24 +2107,24 @@
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28">
+    <row r="19" spans="1:12" ht="39" customHeight="1">
+      <c r="A19" s="43">
         <v>13</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="46" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G19" s="22" t="s">
         <v>26</v>
@@ -2089,20 +2135,20 @@
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="27"/>
+    <row r="20" spans="1:12" ht="41.25" customHeight="1">
+      <c r="A20" s="44"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="35" t="s">
-        <v>144</v>
+      <c r="F20" s="27" t="s">
+        <v>141</v>
       </c>
       <c r="G20" s="22" t="s">
         <v>27</v>
@@ -2113,14 +2159,14 @@
       <c r="K20" s="4"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="39.75" customHeight="1">
       <c r="A21" s="4">
         <v>14</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="46" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -2130,7 +2176,7 @@
         <v>44</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>25</v>
@@ -2141,20 +2187,20 @@
       <c r="K21" s="4"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="59.25" customHeight="1">
       <c r="A22" s="4">
         <v>15</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="F22" s="8" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>25</v>
@@ -2165,12 +2211,12 @@
       <c r="K22" s="4"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="119.25" customHeight="1">
       <c r="A23" s="4">
         <v>16</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="27"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="6" t="s">
         <v>45</v>
       </c>
@@ -2178,7 +2224,7 @@
         <v>46</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G23" s="22" t="s">
         <v>27</v>
@@ -2189,11 +2235,11 @@
       <c r="K23" s="4"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="21.75" customHeight="1">
       <c r="A24" s="4">
         <v>17</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="5" t="s">
         <v>47</v>
       </c>
@@ -2206,31 +2252,33 @@
         <v>25</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I24" s="4">
         <v>1</v>
       </c>
       <c r="J24" s="5"/>
-      <c r="K24" s="4"/>
+      <c r="K24" s="52" t="s">
+        <v>172</v>
+      </c>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="77.25" customHeight="1">
       <c r="A25" s="4">
         <v>18</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="26" t="s">
+      <c r="B25" s="47"/>
+      <c r="C25" s="46" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>54</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G25" s="22" t="s">
         <v>26</v>
@@ -2243,18 +2291,18 @@
       <c r="K25" s="4"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="73.5" customHeight="1">
       <c r="A26" s="4">
         <v>19</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="21" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G26" s="22" t="s">
         <v>26</v>
@@ -2267,14 +2315,14 @@
       <c r="K26" s="4"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="21.75" customHeight="1">
       <c r="A27" s="4">
         <v>20</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="27"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -2286,19 +2334,21 @@
         <v>0.5</v>
       </c>
       <c r="J27" s="5"/>
-      <c r="K27" s="4"/>
+      <c r="K27" s="52" t="s">
+        <v>172</v>
+      </c>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="21.75" customHeight="1">
       <c r="A28" s="4">
         <v>21</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="26" t="s">
+      <c r="B28" s="47"/>
+      <c r="C28" s="46" t="s">
         <v>55</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -2313,20 +2363,20 @@
       <c r="K28" s="4"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="46.5" customHeight="1">
       <c r="A29" s="4">
         <v>22</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="27"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
       <c r="D29" s="6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G29" s="22" t="s">
         <v>26</v>
@@ -2337,22 +2387,22 @@
       <c r="K29" s="4"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="21.75" customHeight="1">
       <c r="A30" s="4">
         <v>23</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="26" t="s">
+      <c r="B30" s="47"/>
+      <c r="C30" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="F30" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>25</v>
@@ -2363,20 +2413,20 @@
       <c r="K30" s="4"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="44.25" customHeight="1">
       <c r="A31" s="4">
         <v>24</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="27"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>25</v>
@@ -2384,23 +2434,25 @@
       <c r="H31" s="5"/>
       <c r="I31" s="4"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="4"/>
+      <c r="K31" s="52" t="s">
+        <v>172</v>
+      </c>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="21.75" customHeight="1">
       <c r="A32" s="4">
         <v>25</v>
       </c>
-      <c r="B32" s="27"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" s="39" t="s">
-        <v>113</v>
+        <v>66</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>111</v>
       </c>
       <c r="G32" s="22" t="s">
         <v>26</v>
@@ -2411,29 +2463,29 @@
       <c r="K32" s="4"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="28">
+    <row r="33" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A33" s="43">
         <v>26</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="D33" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="G33" s="42" t="s">
+      <c r="E33" s="33"/>
+      <c r="F33" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" s="34" t="s">
         <v>26</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="16">
@@ -2441,22 +2493,22 @@
       </c>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="29"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="43" t="s">
+    <row r="34" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A34" s="44"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="E34" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="G34" s="42" t="s">
+      <c r="F34" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34" s="34" t="s">
         <v>27</v>
       </c>
       <c r="H34" s="3"/>
@@ -2465,24 +2517,24 @@
       <c r="K34" s="14"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="19.5" customHeight="1">
       <c r="A35" s="4">
         <v>27</v>
       </c>
-      <c r="B35" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>124</v>
+      <c r="B35" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>122</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>25</v>
@@ -2492,21 +2544,23 @@
         <v>0.5</v>
       </c>
       <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
+      <c r="K35" s="52" t="s">
+        <v>172</v>
+      </c>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="31.5" customHeight="1">
       <c r="A36" s="4">
         <v>28</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="33"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>25</v>
@@ -2517,22 +2571,22 @@
       <c r="K36" s="4"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="21.75" customHeight="1">
       <c r="A37" s="4">
         <v>29</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="F37" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="G37" s="46" t="s">
+      <c r="B37" s="45"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" s="38" t="s">
         <v>26</v>
       </c>
       <c r="H37" s="4"/>
@@ -2541,20 +2595,20 @@
       <c r="K37" s="4"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="21.75" customHeight="1">
       <c r="A38" s="4">
         <v>30</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="33"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>70</v>
       </c>
       <c r="G38" s="23" t="s">
         <v>26</v>
@@ -2565,20 +2619,20 @@
       <c r="K38" s="4"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="21.75" customHeight="1">
       <c r="A39" s="4">
         <v>31</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="33"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F39" s="47" t="s">
         <v>71</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>70</v>
       </c>
       <c r="G39" s="23" t="s">
         <v>27</v>
@@ -2589,20 +2643,20 @@
       <c r="K39" s="4"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="21.75" customHeight="1">
       <c r="A40" s="4">
         <v>32</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="33"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" s="48" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>72</v>
       </c>
       <c r="G40" s="23" t="s">
         <v>27</v>
@@ -2613,22 +2667,22 @@
       <c r="K40" s="4"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="37.5" customHeight="1">
       <c r="A41" s="4">
         <v>33</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="E41" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="G41" s="50" t="s">
+      <c r="B41" s="45"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="G41" s="42" t="s">
         <v>26</v>
       </c>
       <c r="H41" s="10"/>
@@ -2637,20 +2691,20 @@
       <c r="K41" s="13"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="17.25">
       <c r="A42" s="4">
         <v>34</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="33"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>25</v>
@@ -2658,25 +2712,27 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
+      <c r="K42" s="52" t="s">
+        <v>173</v>
+      </c>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="34.5">
       <c r="A43" s="4">
         <v>35</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="E43" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="G43" s="46" t="s">
+      <c r="B43" s="45"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" s="38" t="s">
         <v>27</v>
       </c>
       <c r="H43" s="4"/>
@@ -2685,22 +2741,22 @@
       <c r="K43" s="4"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="34.5">
       <c r="A44" s="4">
         <v>36</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="F44" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="G44" s="46" t="s">
+      <c r="B44" s="45"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="G44" s="38" t="s">
         <v>26</v>
       </c>
       <c r="H44" s="4"/>
@@ -2709,43 +2765,45 @@
       <c r="K44" s="4"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="17.25">
       <c r="A45" s="4">
         <v>37</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="33"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="47"/>
       <c r="D45" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I45" s="4">
         <v>0.5</v>
       </c>
       <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
+      <c r="K45" s="52" t="s">
+        <v>172</v>
+      </c>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" ht="69" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="69">
       <c r="A46" s="4">
         <v>38</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="27"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="48"/>
       <c r="D46" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="1" t="s">
@@ -2756,11 +2814,20 @@
         <v>1</v>
       </c>
       <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
+      <c r="K46" s="52" t="s">
+        <v>172</v>
+      </c>
       <c r="L46" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B16:B18"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B35:B46"/>
     <mergeCell ref="C35:C46"/>
@@ -2770,13 +2837,6 @@
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B16:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/任务单梳理（V1.0）.xlsx
+++ b/任务单梳理（V1.0）.xlsx
@@ -1979,8 +1979,8 @@
   <sheetPr/>
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/任务单梳理（V1.0）.xlsx
+++ b/任务单梳理（V1.0）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164">
   <si>
     <t>序号</t>
   </si>
@@ -636,6 +636,9 @@
     <t>已批准 表示通过；</t>
   </si>
   <si>
+    <t>只能区分已批准跟未批准，无法区分未通过</t>
+  </si>
+  <si>
     <t xml:space="preserve">超过两周未审核的报告，则需提示给审核人。
 信息在列表中置顶显示，背景颜色可显示为黄色
 </t>
@@ -778,19 +781,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -822,6 +818,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -837,36 +841,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -879,34 +861,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -918,24 +877,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -943,7 +886,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -958,6 +901,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -965,10 +961,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -976,10 +977,16 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1030,181 +1037,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1270,35 +1271,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1333,7 +1305,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1353,17 +1340,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1373,145 +1374,145 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1571,21 +1572,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1601,31 +1602,31 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1653,7 +1654,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1715,6 +1716,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1979,8 +1985,8 @@
   <sheetPr/>
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:C29"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2809,7 +2815,9 @@
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="2"/>
+      <c r="K30" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="L30" s="40"/>
     </row>
     <row r="31" ht="44.25" customHeight="1" spans="1:12">
@@ -2819,13 +2827,13 @@
       <c r="B31" s="22"/>
       <c r="C31" s="16"/>
       <c r="D31" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>15</v>
@@ -2844,14 +2852,14 @@
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>53</v>
@@ -2867,24 +2875,24 @@
         <v>26</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G33" s="26" t="s">
         <v>53</v>
       </c>
       <c r="H33" s="18"/>
       <c r="I33" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J33" s="40"/>
       <c r="K33" s="48">
@@ -2896,16 +2904,16 @@
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G34" s="26" t="s">
         <v>53</v>
@@ -2921,19 +2929,19 @@
         <v>27</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>15</v>
@@ -2955,11 +2963,11 @@
       <c r="B36" s="20"/>
       <c r="C36" s="22"/>
       <c r="D36" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>15</v>
@@ -2979,13 +2987,13 @@
       <c r="B37" s="20"/>
       <c r="C37" s="22"/>
       <c r="D37" s="32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G37" s="33" t="s">
         <v>53</v>
@@ -3003,13 +3011,13 @@
       <c r="B38" s="20"/>
       <c r="C38" s="22"/>
       <c r="D38" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>53</v>
@@ -3027,13 +3035,13 @@
       <c r="B39" s="20"/>
       <c r="C39" s="22"/>
       <c r="D39" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="E39" s="18" t="s">
-        <v>143</v>
-      </c>
       <c r="F39" s="34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>53</v>
@@ -3051,13 +3059,13 @@
       <c r="B40" s="20"/>
       <c r="C40" s="22"/>
       <c r="D40" s="31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>53</v>
@@ -3075,13 +3083,13 @@
       <c r="B41" s="20"/>
       <c r="C41" s="22"/>
       <c r="D41" s="37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G41" s="38" t="s">
         <v>53</v>
@@ -3099,13 +3107,13 @@
       <c r="B42" s="20"/>
       <c r="C42" s="22"/>
       <c r="D42" s="31" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>15</v>
@@ -3114,7 +3122,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L42" s="40"/>
     </row>
@@ -3125,13 +3133,13 @@
       <c r="B43" s="20"/>
       <c r="C43" s="22"/>
       <c r="D43" s="37" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G43" s="33" t="s">
         <v>53</v>
@@ -3149,13 +3157,13 @@
       <c r="B44" s="20"/>
       <c r="C44" s="22"/>
       <c r="D44" s="37" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F44" s="28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G44" s="33" t="s">
         <v>53</v>
@@ -3173,10 +3181,10 @@
       <c r="B45" s="20"/>
       <c r="C45" s="22"/>
       <c r="D45" s="31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="1" t="s">
@@ -3201,10 +3209,10 @@
       <c r="B46" s="15"/>
       <c r="C46" s="16"/>
       <c r="D46" s="31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="1" t="s">

--- a/任务单梳理（V1.0）.xlsx
+++ b/任务单梳理（V1.0）.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\lims\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WB\lims\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19776" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="171">
   <si>
     <t>序号</t>
   </si>
@@ -150,28 +150,6 @@
   </si>
   <si>
     <t>仪器设备</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1、仪器设备：直接在维护页，添加便捷出、入库操作按钮，并简化填写内容，能系统关联的自动关联。
-2、计量管理：添加“是否提醒”字段，默认为提醒；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>列表字段：会提供新的Execl模板</t>
-    </r>
   </si>
   <si>
     <t>否</t>
@@ -331,9 +309,6 @@
     <t>实验室管理</t>
   </si>
   <si>
-    <t>新增“任务考核”功能模块</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -483,20 +458,6 @@
     <t>检验报告 功能优化</t>
   </si>
   <si>
-    <t>需要区分何为审核通过与未通过</t>
-  </si>
-  <si>
-    <t xml:space="preserve">超过两周未审核的报告，则需提示给审核人。
-信息在列表中置顶显示，背景颜色可显示为黄色
-</t>
-  </si>
-  <si>
-    <t>如何区分是否为超过2周的审核报告</t>
-  </si>
-  <si>
-    <t>按照检验日期往后退时间，并按照时间显示背景。</t>
-  </si>
-  <si>
     <t>检验报告 改版修改</t>
   </si>
   <si>
@@ -641,14 +602,6 @@
   </si>
   <si>
     <t>新增字段，可上传药品说明文档附件。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照公司提供的表格重新设计与修改，其中计量检定，人工设定检定日期，可设置是否提醒；添加仪器设备的导入、导出功能。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要提供表格模板，并明确各字段意义；</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -806,22 +759,95 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>宋超</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户体验调整</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照公司提供的表格重新设计与修改，其中计量检定，人工设定检定日期，可设置是否提醒；添加仪器设备的导入、导出功能。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要提供表格模板，并明确各字段意义；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1、仪器设备：直接在维护页，添加便捷出、入库操作按钮，并简化填写内容，能系统关联的自动关联。
+2、计量管理：添加“是否提醒”字段，默认为提醒；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>列表字段：会提供新的Execl模板</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要区分何为审核通过与未通过</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>已批准 表示通过；</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>宋超</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>宋超</t>
+    <t>如何区分是否为超过2周的审核报告</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">超过两周未审核的报告，则需提示给审核人。
+信息在列表中置顶显示，背景颜色可显示为黄色
+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照检验日期往后退时间，并按照时间显示背景。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个逻辑有问题，会出现新数据也是标红的情况，没有字段明确表示未批准</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增“任务考核”功能模块</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要明确该模块的实现意义，以及业务逻辑；避免纯功能开发。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于删除易耗品柜所以列表也没有位置信息了</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1025,7 +1051,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1145,63 +1171,73 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1478,28 +1514,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="29.875" customWidth="1"/>
-    <col min="4" max="4" width="44.75" customWidth="1"/>
-    <col min="5" max="5" width="21.625" customWidth="1"/>
-    <col min="6" max="6" width="31.75" customWidth="1"/>
-    <col min="7" max="7" width="11.75" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="10.25" customWidth="1"/>
-    <col min="10" max="10" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="31.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="14.25" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" customWidth="1"/>
+    <col min="13" max="13" width="38.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1537,7 +1574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1569,7 +1606,7 @@
       </c>
       <c r="L2" s="36"/>
     </row>
-    <row r="3" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1579,20 +1616,20 @@
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>158</v>
+      <c r="D3" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>150</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="52" t="s">
-        <v>138</v>
+      <c r="H3" s="44" t="s">
+        <v>132</v>
       </c>
       <c r="I3" s="2">
         <v>0.5</v>
@@ -1601,7 +1638,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="36"/>
     </row>
-    <row r="4" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1633,7 +1670,7 @@
       </c>
       <c r="L4" s="36"/>
     </row>
-    <row r="5" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1663,7 +1700,7 @@
       </c>
       <c r="L5" s="36"/>
     </row>
-    <row r="6" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -1671,8 +1708,8 @@
       <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="49" t="s">
-        <v>135</v>
+      <c r="D6" s="41" t="s">
+        <v>129</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1687,7 +1724,7 @@
       </c>
       <c r="L6" s="36"/>
     </row>
-    <row r="7" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1717,7 +1754,7 @@
       </c>
       <c r="L7" s="36"/>
     </row>
-    <row r="8" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1747,14 +1784,14 @@
       </c>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>140</v>
+      <c r="C9" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>134</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1769,7 +1806,7 @@
       </c>
       <c r="L9" s="36"/>
     </row>
-    <row r="10" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1777,22 +1814,22 @@
         <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="52" t="s">
-        <v>138</v>
+      <c r="H10" s="44" t="s">
+        <v>132</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
@@ -1801,18 +1838,18 @@
       <c r="K10" s="2"/>
       <c r="L10" s="36"/>
     </row>
-    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41">
+    <row r="11" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52">
         <v>8</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1826,29 +1863,32 @@
         <v>0.5</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="6" t="s">
-        <v>15</v>
+      <c r="K11" s="62" t="s">
+        <v>169</v>
       </c>
       <c r="L11" s="36"/>
-    </row>
-    <row r="12" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="42"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="48"/>
+      <c r="M11" s="63" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="54"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="G12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="52" t="s">
-        <v>138</v>
+        <v>42</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>132</v>
       </c>
       <c r="I12" s="2">
         <v>0.5</v>
@@ -1857,46 +1897,48 @@
       <c r="K12" s="2"/>
       <c r="L12" s="36"/>
     </row>
-    <row r="13" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="57" t="s">
-        <v>159</v>
+      <c r="B13" s="49" t="s">
+        <v>151</v>
       </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="49" t="s">
-        <v>160</v>
+      <c r="D13" s="41" t="s">
+        <v>152</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="52" t="s">
-        <v>138</v>
+      <c r="H13" s="44" t="s">
+        <v>132</v>
       </c>
       <c r="I13" s="2">
         <v>0.5</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="2"/>
+      <c r="K13" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="L13" s="36"/>
     </row>
-    <row r="14" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="49" t="s">
-        <v>143</v>
+      <c r="D14" s="41" t="s">
+        <v>135</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>144</v>
+        <v>49</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>136</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>15</v>
@@ -1904,85 +1946,85 @@
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="53" t="s">
-        <v>145</v>
+      <c r="K14" s="45" t="s">
+        <v>137</v>
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="F15" s="54" t="s">
-        <v>148</v>
+      <c r="D15" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>140</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="2">
         <v>2</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="53" t="s">
-        <v>145</v>
+      <c r="K15" s="45" t="s">
+        <v>137</v>
       </c>
       <c r="L15" s="36"/>
     </row>
-    <row r="16" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="D16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>57</v>
-      </c>
       <c r="G16" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="2"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="53" t="s">
-        <v>145</v>
+      <c r="K16" s="45" t="s">
+        <v>137</v>
       </c>
       <c r="L16" s="36"/>
     </row>
-    <row r="17" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41">
+    <row r="17" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="52">
         <v>12</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="D17" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1999,26 +2041,26 @@
       </c>
       <c r="L17" s="36"/>
     </row>
-    <row r="18" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
-      <c r="B18" s="45"/>
+    <row r="18" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="54"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="G18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="52" t="s">
-        <v>161</v>
+        <v>42</v>
+      </c>
+      <c r="H18" s="44" t="s">
+        <v>153</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
@@ -2027,14 +2069,14 @@
       <c r="K18" s="2"/>
       <c r="L18" s="36"/>
     </row>
-    <row r="19" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
-      <c r="B19" s="42"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="18"/>
@@ -2044,63 +2086,65 @@
       <c r="H19" s="3"/>
       <c r="I19" s="2"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="53" t="s">
-        <v>145</v>
+      <c r="K19" s="45" t="s">
+        <v>137</v>
       </c>
       <c r="L19" s="36"/>
     </row>
-    <row r="20" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41">
+    <row r="20" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="52">
         <v>13</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="G20" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="52" t="s">
-        <v>162</v>
+        <v>42</v>
+      </c>
+      <c r="H20" s="44" t="s">
+        <v>154</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="61" t="s">
+        <v>164</v>
+      </c>
       <c r="L20" s="36"/>
     </row>
-    <row r="21" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
-      <c r="B21" s="44"/>
+    <row r="21" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="54"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="F21" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="52" t="s">
-        <v>161</v>
+        <v>42</v>
+      </c>
+      <c r="H21" s="44" t="s">
+        <v>153</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
@@ -2109,24 +2153,24 @@
       <c r="K21" s="2"/>
       <c r="L21" s="36"/>
     </row>
-    <row r="22" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>14</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="E22" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>15</v>
@@ -2134,31 +2178,31 @@
       <c r="H22" s="3"/>
       <c r="I22" s="2"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="40" t="s">
-        <v>15</v>
+      <c r="K22" s="61" t="s">
+        <v>164</v>
       </c>
       <c r="L22" s="36"/>
     </row>
-    <row r="23" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>15</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="49" t="s">
-        <v>150</v>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="41" t="s">
+        <v>142</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="55" t="s">
-        <v>149</v>
+        <v>75</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>141</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="52" t="s">
-        <v>161</v>
+      <c r="H23" s="44" t="s">
+        <v>153</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
@@ -2167,42 +2211,42 @@
       <c r="K23" s="2"/>
       <c r="L23" s="36"/>
     </row>
-    <row r="24" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>16</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="49" t="s">
-        <v>151</v>
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="41" t="s">
+        <v>143</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="2"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="53" t="s">
-        <v>145</v>
+      <c r="K24" s="45" t="s">
+        <v>137</v>
       </c>
       <c r="L24" s="36"/>
     </row>
-    <row r="25" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>17</v>
       </c>
-      <c r="B25" s="46"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -2221,70 +2265,70 @@
       </c>
       <c r="L25" s="36"/>
     </row>
-    <row r="26" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>18</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>152</v>
+      <c r="B26" s="58"/>
+      <c r="C26" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>144</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="54" t="s">
-        <v>153</v>
+        <v>81</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>145</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" s="3"/>
-      <c r="K26" s="53" t="s">
-        <v>145</v>
+      <c r="K26" s="45" t="s">
+        <v>137</v>
       </c>
       <c r="L26" s="36"/>
     </row>
-    <row r="27" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>19</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" s="3"/>
-      <c r="K27" s="53" t="s">
-        <v>145</v>
+      <c r="K27" s="45" t="s">
+        <v>137</v>
       </c>
       <c r="L27" s="36"/>
     </row>
-    <row r="28" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>20</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="44"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="59"/>
       <c r="D28" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -2301,16 +2345,16 @@
       </c>
       <c r="L28" s="36"/>
     </row>
-    <row r="29" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>21</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="49" t="s">
-        <v>154</v>
+      <c r="B29" s="58"/>
+      <c r="C29" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>146</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -2327,76 +2371,78 @@
       </c>
       <c r="L29" s="36"/>
     </row>
-    <row r="30" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>22</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="E30" s="49" t="s">
-        <v>156</v>
+      <c r="B30" s="58"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>148</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="53" t="s">
-        <v>145</v>
+      <c r="K30" s="45" t="s">
+        <v>137</v>
       </c>
       <c r="L30" s="36"/>
     </row>
-    <row r="31" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>23</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F31" s="50" t="s">
-        <v>163</v>
+      <c r="B31" s="58"/>
+      <c r="C31" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>161</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="52" t="s">
-        <v>164</v>
+      <c r="H31" s="44" t="s">
+        <v>155</v>
       </c>
       <c r="I31" s="2">
         <v>0.5</v>
       </c>
       <c r="J31" s="3"/>
-      <c r="K31" s="52"/>
+      <c r="K31" s="44" t="s">
+        <v>166</v>
+      </c>
       <c r="L31" s="36"/>
     </row>
-    <row r="32" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>24</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>93</v>
+      <c r="B32" s="58"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" s="41" t="s">
+        <v>165</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>15</v>
@@ -2404,107 +2450,107 @@
       <c r="H32" s="3"/>
       <c r="I32" s="2"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="40" t="s">
-        <v>15</v>
+      <c r="K32" s="61" t="s">
+        <v>164</v>
       </c>
       <c r="L32" s="36"/>
     </row>
-    <row r="33" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>25</v>
       </c>
-      <c r="B33" s="44"/>
+      <c r="B33" s="59"/>
       <c r="C33" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="53" t="s">
-        <v>145</v>
+      <c r="K33" s="45" t="s">
+        <v>137</v>
       </c>
       <c r="L33" s="36"/>
     </row>
-    <row r="34" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="41">
+    <row r="34" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="52">
         <v>26</v>
       </c>
-      <c r="B34" s="43" t="s">
-        <v>97</v>
+      <c r="B34" s="57" t="s">
+        <v>91</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E34" s="21"/>
       <c r="F34" s="21" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J34" s="36"/>
-      <c r="K34" s="58"/>
+      <c r="K34" s="50"/>
       <c r="L34" s="36"/>
     </row>
-    <row r="35" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="42"/>
-      <c r="B35" s="44"/>
+    <row r="35" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="54"/>
+      <c r="B35" s="59"/>
       <c r="C35" s="23" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
       <c r="J35" s="36"/>
-      <c r="K35" s="59"/>
+      <c r="K35" s="51"/>
       <c r="L35" s="36"/>
     </row>
-    <row r="36" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>27</v>
       </c>
-      <c r="B36" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>107</v>
+      <c r="B36" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>101</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>15</v>
@@ -2519,18 +2565,18 @@
       </c>
       <c r="L36" s="36"/>
     </row>
-    <row r="37" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>28</v>
       </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="46"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="58"/>
       <c r="D37" s="27" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="15" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>15</v>
@@ -2543,23 +2589,23 @@
       </c>
       <c r="L37" s="36"/>
     </row>
-    <row r="38" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>29</v>
       </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="46"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="58"/>
       <c r="D38" s="28" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -2567,101 +2613,101 @@
       <c r="K38" s="29"/>
       <c r="L38" s="36"/>
     </row>
-    <row r="39" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>30</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="46"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="58"/>
       <c r="D39" s="26" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="53" t="s">
-        <v>145</v>
+      <c r="K39" s="45" t="s">
+        <v>137</v>
       </c>
       <c r="L39" s="36"/>
     </row>
-    <row r="40" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>31</v>
       </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="46"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="58"/>
       <c r="D40" s="26" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="53" t="s">
-        <v>145</v>
+      <c r="K40" s="45" t="s">
+        <v>137</v>
       </c>
       <c r="L40" s="36"/>
     </row>
-    <row r="41" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>32</v>
       </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="46"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="27" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G41" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="53" t="s">
-        <v>145</v>
+      <c r="K41" s="45" t="s">
+        <v>137</v>
       </c>
       <c r="L41" s="36"/>
     </row>
-    <row r="42" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>33</v>
       </c>
-      <c r="B42" s="45"/>
-      <c r="C42" s="46"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="58"/>
       <c r="D42" s="33" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
@@ -2669,51 +2715,51 @@
       <c r="K42" s="34"/>
       <c r="L42" s="36"/>
     </row>
-    <row r="43" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>34</v>
       </c>
-      <c r="B43" s="45"/>
-      <c r="C43" s="46"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="58"/>
       <c r="D43" s="27" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="52" t="s">
-        <v>165</v>
+      <c r="H43" s="44" t="s">
+        <v>132</v>
       </c>
       <c r="I43" s="2">
         <v>1</v>
       </c>
       <c r="J43" s="2"/>
-      <c r="K43" s="56"/>
+      <c r="K43" s="48"/>
       <c r="L43" s="36"/>
     </row>
-    <row r="44" spans="1:12" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>35</v>
       </c>
-      <c r="B44" s="45"/>
-      <c r="C44" s="46"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="58"/>
       <c r="D44" s="33" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -2721,23 +2767,23 @@
       <c r="K44" s="29"/>
       <c r="L44" s="36"/>
     </row>
-    <row r="45" spans="1:12" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>36</v>
       </c>
-      <c r="B45" s="45"/>
-      <c r="C45" s="46"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="58"/>
       <c r="D45" s="33" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -2745,17 +2791,17 @@
       <c r="K45" s="29"/>
       <c r="L45" s="36"/>
     </row>
-    <row r="46" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>37</v>
       </c>
-      <c r="B46" s="45"/>
-      <c r="C46" s="46"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="58"/>
       <c r="D46" s="27" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="1" t="s">
@@ -2773,17 +2819,17 @@
       </c>
       <c r="L46" s="36"/>
     </row>
-    <row r="47" spans="1:12" ht="69" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="69.599999999999994" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>38</v>
       </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="44"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="59"/>
       <c r="D47" s="27" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="1" t="s">
@@ -2801,13 +2847,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B36:B47"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C36:C47"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A20:A21"/>
@@ -2817,6 +2856,13 @@
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B33"/>
     <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B47"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C36:C47"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
